--- a/Tobor Inc Automation/Dummy Data.xlsx
+++ b/Tobor Inc Automation/Dummy Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhoa\Documents\UiPath\Tobor Inc Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DDCF6BF-ADB3-42DB-AF45-103818A4CDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031681B4-16FB-4CE2-8F8A-4D8D52698057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="9420" xr2:uid="{EF059E27-DB5C-4791-B45A-BD184D5C1698}"/>
+    <workbookView xWindow="-72" yWindow="2340" windowWidth="17280" windowHeight="9420" xr2:uid="{EF059E27-DB5C-4791-B45A-BD184D5C1698}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="676">
   <si>
     <t>Eleonore</t>
   </si>
@@ -1168,892 +1168,901 @@
     <t>Weekdays+J63JJ47:J93</t>
   </si>
   <si>
-    <t>Krystle</t>
-  </si>
-  <si>
-    <t>Alayna</t>
-  </si>
-  <si>
-    <t>Li</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Ailene</t>
-  </si>
-  <si>
-    <t>Bryce</t>
-  </si>
-  <si>
-    <t>Kathryn</t>
-  </si>
-  <si>
-    <t>Carmelita</t>
-  </si>
-  <si>
-    <t>Chau</t>
-  </si>
-  <si>
-    <t>Vania</t>
-  </si>
-  <si>
-    <t>Anastasia</t>
-  </si>
-  <si>
-    <t>Jayne</t>
-  </si>
-  <si>
-    <t>Janita</t>
-  </si>
-  <si>
-    <t>Pearlie</t>
-  </si>
-  <si>
-    <t>Avery</t>
-  </si>
-  <si>
-    <t>Mellisa</t>
-  </si>
-  <si>
-    <t>Katrice</t>
-  </si>
-  <si>
-    <t>Loma</t>
-  </si>
-  <si>
-    <t>Matilda</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Gisele</t>
-  </si>
-  <si>
-    <t>Katie</t>
-  </si>
-  <si>
-    <t>Bev</t>
-  </si>
-  <si>
-    <t>Cassi</t>
-  </si>
-  <si>
-    <t>Tu</t>
-  </si>
-  <si>
-    <t>Yen</t>
-  </si>
-  <si>
-    <t>Elwood</t>
-  </si>
-  <si>
-    <t>Lizabeth</t>
-  </si>
-  <si>
-    <t>Marleen</t>
-  </si>
-  <si>
-    <t>Carmen</t>
-  </si>
-  <si>
-    <t>Elizabet</t>
-  </si>
-  <si>
-    <t>Shante</t>
-  </si>
-  <si>
-    <t>Eunice</t>
-  </si>
-  <si>
-    <t>Ursula</t>
-  </si>
-  <si>
-    <t>Anjanette</t>
-  </si>
-  <si>
-    <t>Teodora</t>
-  </si>
-  <si>
-    <t>Georgina</t>
-  </si>
-  <si>
-    <t>Cordia</t>
-  </si>
-  <si>
-    <t>Rayford</t>
-  </si>
-  <si>
-    <t>Allyn</t>
-  </si>
-  <si>
-    <t>Gayle</t>
-  </si>
-  <si>
-    <t>Willette</t>
-  </si>
-  <si>
-    <t>Glenna</t>
-  </si>
-  <si>
-    <t>Twana</t>
+    <t>Margurite</t>
+  </si>
+  <si>
+    <t>Juliette</t>
+  </si>
+  <si>
+    <t>Samara</t>
+  </si>
+  <si>
+    <t>Bertha</t>
+  </si>
+  <si>
+    <t>Sharyl</t>
+  </si>
+  <si>
+    <t>Marguerite</t>
+  </si>
+  <si>
+    <t>Brice</t>
+  </si>
+  <si>
+    <t>Kimberli</t>
+  </si>
+  <si>
+    <t>Saul</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Elvina</t>
+  </si>
+  <si>
+    <t>Carlita</t>
+  </si>
+  <si>
+    <t>Soraya</t>
+  </si>
+  <si>
+    <t>Fidelia</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>Mitzi</t>
+  </si>
+  <si>
+    <t>Shellie</t>
+  </si>
+  <si>
+    <t>Onie</t>
+  </si>
+  <si>
+    <t>Mina</t>
+  </si>
+  <si>
+    <t>Joette</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>Yvone</t>
+  </si>
+  <si>
+    <t>Enrique</t>
+  </si>
+  <si>
+    <t>Madge</t>
+  </si>
+  <si>
+    <t>Ozella</t>
+  </si>
+  <si>
+    <t>Yvonne</t>
+  </si>
+  <si>
+    <t>Randee</t>
+  </si>
+  <si>
+    <t>Kristle</t>
+  </si>
+  <si>
+    <t>Sharell</t>
+  </si>
+  <si>
+    <t>Amada</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Zachary</t>
+  </si>
+  <si>
+    <t>Ossie</t>
   </si>
   <si>
     <t>Beverley</t>
   </si>
   <si>
-    <t>Barbra</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>Sanford</t>
-  </si>
-  <si>
-    <t>Petty</t>
-  </si>
-  <si>
-    <t>Holden</t>
-  </si>
-  <si>
-    <t>Keene</t>
-  </si>
-  <si>
-    <t>Cisneros</t>
-  </si>
-  <si>
-    <t>Booth</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Reeder</t>
-  </si>
-  <si>
-    <t>Robbins</t>
-  </si>
-  <si>
-    <t>Bowles</t>
-  </si>
-  <si>
-    <t>Pate</t>
-  </si>
-  <si>
-    <t>Houser</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>Doherty</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>Terrell</t>
-  </si>
-  <si>
-    <t>Clements</t>
-  </si>
-  <si>
-    <t>Rush</t>
-  </si>
-  <si>
-    <t>Perry</t>
+    <t>Alexis</t>
+  </si>
+  <si>
+    <t>Christiana</t>
+  </si>
+  <si>
+    <t>Raeann</t>
+  </si>
+  <si>
+    <t>Audrie</t>
+  </si>
+  <si>
+    <t>Lucien</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Jacinto</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>Hilde</t>
+  </si>
+  <si>
+    <t>Ty</t>
+  </si>
+  <si>
+    <t>Malika</t>
+  </si>
+  <si>
+    <t>Mariette</t>
+  </si>
+  <si>
+    <t>Gloria</t>
+  </si>
+  <si>
+    <t>Amie</t>
+  </si>
+  <si>
+    <t>Myles</t>
   </si>
   <si>
     <t>Mitchell</t>
   </si>
   <si>
-    <t>Parrish</t>
-  </si>
-  <si>
-    <t>Holbrook</t>
-  </si>
-  <si>
-    <t>Feliciano</t>
-  </si>
-  <si>
-    <t>Schroeder</t>
-  </si>
-  <si>
-    <t>Cuevas</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Gage</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Akins</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>Greer</t>
-  </si>
-  <si>
-    <t>Childers</t>
-  </si>
-  <si>
-    <t>Murray</t>
-  </si>
-  <si>
-    <t>Benson</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Kirkpatrick</t>
-  </si>
-  <si>
-    <t>Crane</t>
+    <t>Sawyer</t>
+  </si>
+  <si>
+    <t>Proctor</t>
+  </si>
+  <si>
+    <t>Munson</t>
+  </si>
+  <si>
+    <t>Roberson</t>
+  </si>
+  <si>
+    <t>Barlow</t>
+  </si>
+  <si>
+    <t>Hanks</t>
+  </si>
+  <si>
+    <t>Mckinley</t>
+  </si>
+  <si>
+    <t>Lackey</t>
+  </si>
+  <si>
+    <t>Garrison</t>
+  </si>
+  <si>
+    <t>Lunsford</t>
+  </si>
+  <si>
+    <t>Meier</t>
+  </si>
+  <si>
+    <t>Cobb</t>
+  </si>
+  <si>
+    <t>Farrell</t>
   </si>
   <si>
     <t>Yoder</t>
   </si>
   <si>
-    <t>Copeland</t>
-  </si>
-  <si>
-    <t>Ledford</t>
-  </si>
-  <si>
-    <t>Waters</t>
-  </si>
-  <si>
-    <t>Watts</t>
-  </si>
-  <si>
-    <t>Jarrett</t>
-  </si>
-  <si>
-    <t>Marcus</t>
-  </si>
-  <si>
-    <t>Carlson</t>
-  </si>
-  <si>
-    <t>91 Bootham Crescent</t>
-  </si>
-  <si>
-    <t>Rilla Mill</t>
-  </si>
-  <si>
-    <t> PL17 2TD</t>
-  </si>
-  <si>
-    <t>  077 5982 2320</t>
-  </si>
-  <si>
-    <t>12 Roman Rd</t>
-  </si>
-  <si>
-    <t>Ledmore</t>
-  </si>
-  <si>
-    <t> IV27 0NA</t>
-  </si>
-  <si>
-    <t>  070 8155 1139</t>
-  </si>
-  <si>
-    <t>26 Main St</t>
-  </si>
-  <si>
-    <t>Achindown</t>
-  </si>
-  <si>
-    <t> IV12 8JS</t>
-  </si>
-  <si>
-    <t>  077 3558 5011</t>
-  </si>
-  <si>
-    <t>70 Wern Ddu Lane</t>
-  </si>
-  <si>
-    <t>Ludford Magna</t>
-  </si>
-  <si>
-    <t> LN3 8DG</t>
-  </si>
-  <si>
-    <t>  078 4714 5035</t>
-  </si>
-  <si>
-    <t>35 Mounthoolie Lane</t>
-  </si>
-  <si>
-    <t>Sutors Of Cromarty</t>
-  </si>
-  <si>
-    <t> IV11 9GR</t>
-  </si>
-  <si>
-    <t>  079 2987 4996</t>
-  </si>
-  <si>
-    <t>81 Fore St</t>
-  </si>
-  <si>
-    <t>Tudeley</t>
-  </si>
-  <si>
-    <t> TN11 7SH</t>
-  </si>
-  <si>
-    <t>  070 0536 7650</t>
-  </si>
-  <si>
-    <t>50 Hounslow Rd</t>
-  </si>
-  <si>
-    <t>Smyrton</t>
-  </si>
-  <si>
-    <t> KA26 9ZA</t>
-  </si>
-  <si>
-    <t>  077 2224 6614</t>
-  </si>
-  <si>
-    <t>96 Trinity Crescent</t>
-  </si>
-  <si>
-    <t>Whaw</t>
-  </si>
-  <si>
-    <t> DL11 3LE</t>
-  </si>
-  <si>
-    <t>  077 4446 7024</t>
-  </si>
-  <si>
-    <t>80 St James Boulevard</t>
-  </si>
-  <si>
-    <t>Horning</t>
-  </si>
-  <si>
-    <t> NR12 4UE</t>
-  </si>
-  <si>
-    <t>  070 3178 6947</t>
-  </si>
-  <si>
-    <t>26 South Western Terrace</t>
-  </si>
-  <si>
-    <t>Milton Of Campsie</t>
-  </si>
-  <si>
-    <t> G65 6AE</t>
-  </si>
-  <si>
-    <t>  078 1669 7121</t>
-  </si>
-  <si>
-    <t>53 Walden Road</t>
-  </si>
-  <si>
-    <t>Greete</t>
-  </si>
-  <si>
-    <t> SY8 1YN</t>
-  </si>
-  <si>
-    <t>  079 5506 9914</t>
-  </si>
-  <si>
-    <t>90 Merthyr Road</t>
-  </si>
-  <si>
-    <t>Burlingjobb</t>
-  </si>
-  <si>
-    <t> LD8 0ZG</t>
-  </si>
-  <si>
-    <t>  070 1077 2518</t>
-  </si>
-  <si>
-    <t>80 Thames Street</t>
-  </si>
-  <si>
-    <t>Bolderwood</t>
-  </si>
-  <si>
-    <t> SO43 2FE</t>
-  </si>
-  <si>
-    <t>  077 1935 8670</t>
-  </si>
-  <si>
-    <t>90 Kendell Street</t>
-  </si>
-  <si>
-    <t>Shawbury</t>
-  </si>
-  <si>
-    <t> SY4 7FW</t>
-  </si>
-  <si>
-    <t>  078 8616 7138</t>
-  </si>
-  <si>
-    <t>55 Prince Consort Road</t>
-  </si>
-  <si>
-    <t>Kensworth</t>
-  </si>
-  <si>
-    <t> LU6 7ZL</t>
-  </si>
-  <si>
-    <t>  079 0259 8503</t>
-  </si>
-  <si>
-    <t>5 Wade Lane</t>
-  </si>
-  <si>
-    <t>Sandford</t>
-  </si>
-  <si>
-    <t> ML10 1SF</t>
-  </si>
-  <si>
-    <t>  077 1456 7820</t>
-  </si>
-  <si>
-    <t>53 Holburn Lane</t>
-  </si>
-  <si>
-    <t>Heath Hill</t>
-  </si>
-  <si>
-    <t> TF11 6BU</t>
-  </si>
-  <si>
-    <t>  079 8981 0317</t>
-  </si>
-  <si>
-    <t>9 Argyll Road</t>
-  </si>
-  <si>
-    <t>Llanbadarn Fynydd</t>
-  </si>
-  <si>
-    <t> LD1 1JR</t>
-  </si>
-  <si>
-    <t>  079 3961 7543</t>
-  </si>
-  <si>
-    <t>24 North Promenade</t>
-  </si>
-  <si>
-    <t>Dollarbeg</t>
-  </si>
-  <si>
-    <t> FK14 7JG</t>
-  </si>
-  <si>
-    <t>  070 8671 2290</t>
-  </si>
-  <si>
-    <t>25 Sandyhill Rd</t>
-  </si>
-  <si>
-    <t>Fulwell</t>
-  </si>
-  <si>
-    <t> SR5 4RG</t>
-  </si>
-  <si>
-    <t>  070 8806 0666</t>
-  </si>
-  <si>
-    <t>94 Balsham Road</t>
-  </si>
-  <si>
-    <t>Hartley Wintney</t>
-  </si>
-  <si>
-    <t> RG27 2QD</t>
-  </si>
-  <si>
-    <t>  077 4816 3572</t>
-  </si>
-  <si>
-    <t>29 Cloch Rd</t>
-  </si>
-  <si>
-    <t>St Just</t>
-  </si>
-  <si>
-    <t> TR19 0NZ</t>
-  </si>
-  <si>
-    <t>  070 2768 1354</t>
-  </si>
-  <si>
-    <t>73 Farburn Terrace</t>
-  </si>
-  <si>
-    <t>Little Horkesley</t>
-  </si>
-  <si>
-    <t> CO6 6FT</t>
-  </si>
-  <si>
-    <t>  077 6673 4725</t>
-  </si>
-  <si>
-    <t>32 Lairg Road</t>
-  </si>
-  <si>
-    <t>Newbridge</t>
-  </si>
-  <si>
-    <t> OX8 9AY</t>
-  </si>
-  <si>
-    <t>  070 5686 0073</t>
-  </si>
-  <si>
-    <t>76 Overton Circle</t>
-  </si>
-  <si>
-    <t>Littleborough</t>
-  </si>
-  <si>
-    <t> DN22 4NB</t>
-  </si>
-  <si>
-    <t>  070 7715 7224</t>
-  </si>
-  <si>
-    <t>46 Front Street</t>
-  </si>
-  <si>
-    <t>Ladykirk</t>
-  </si>
-  <si>
-    <t> TD15 0UF</t>
-  </si>
-  <si>
-    <t>  079 6358 7945</t>
-  </si>
-  <si>
-    <t>58 Cloch Rd</t>
-  </si>
-  <si>
-    <t>St Kew Highway</t>
-  </si>
-  <si>
-    <t> PL30 6DH</t>
-  </si>
-  <si>
-    <t>  077 1111 8838</t>
-  </si>
-  <si>
-    <t>61 Thirsk Road</t>
-  </si>
-  <si>
-    <t>Blandford Camp</t>
-  </si>
-  <si>
-    <t> DT11 0AR</t>
-  </si>
-  <si>
-    <t>  079 2919 6230</t>
-  </si>
-  <si>
-    <t>85 Stone Cellar Road</t>
-  </si>
-  <si>
-    <t>Kinloch</t>
-  </si>
-  <si>
-    <t> PH12 2NL</t>
-  </si>
-  <si>
-    <t>  077 2898 0642</t>
-  </si>
-  <si>
-    <t>98 Traill Street</t>
-  </si>
-  <si>
-    <t>Rosehall</t>
-  </si>
-  <si>
-    <t> IV27 8XE</t>
-  </si>
-  <si>
-    <t>  070 5653 1206</t>
-  </si>
-  <si>
-    <t>16 Hertingfordbury Rd</t>
-  </si>
-  <si>
-    <t>Newthorpe</t>
-  </si>
-  <si>
-    <t> LS25 4FH</t>
-  </si>
-  <si>
-    <t>  077 7094 8574</t>
-  </si>
-  <si>
-    <t>41 Seafield Place</t>
-  </si>
-  <si>
-    <t>Forton</t>
-  </si>
-  <si>
-    <t> SP11 8LB</t>
-  </si>
-  <si>
-    <t>  078 1017 8041</t>
-  </si>
-  <si>
-    <t>68 Merthyr Road</t>
-  </si>
-  <si>
-    <t>Bures Green</t>
-  </si>
-  <si>
-    <t> CO8 8HL</t>
-  </si>
-  <si>
-    <t>  070 3423 5494</t>
-  </si>
-  <si>
-    <t>1 Red Lane</t>
+    <t>Drummond</t>
+  </si>
+  <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Knutson</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>Woody</t>
+  </si>
+  <si>
+    <t>Muniz</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>Bravo</t>
+  </si>
+  <si>
+    <t>Mcgrath</t>
+  </si>
+  <si>
+    <t>Mcmillan</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>Williamson</t>
+  </si>
+  <si>
+    <t>Mcnally</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Stafford</t>
+  </si>
+  <si>
+    <t>Neal</t>
+  </si>
+  <si>
+    <t>Pryor</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Bray</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>Gunter</t>
+  </si>
+  <si>
+    <t>Locke</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Looney</t>
+  </si>
+  <si>
+    <t>Geiger</t>
+  </si>
+  <si>
+    <t>Spaulding</t>
+  </si>
+  <si>
+    <t>Harrison</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Manning</t>
+  </si>
+  <si>
+    <t>Segura</t>
+  </si>
+  <si>
+    <t>Dickson</t>
+  </si>
+  <si>
+    <t>48 Terrick Rd</t>
+  </si>
+  <si>
+    <t>Elmdon Heath</t>
+  </si>
+  <si>
+    <t> B92 3QD</t>
+  </si>
+  <si>
+    <t>  079 3923 9484</t>
+  </si>
+  <si>
+    <t>89 Red Lane</t>
   </si>
   <si>
     <t>Eriff</t>
   </si>
   <si>
-    <t> DG7 4EG</t>
-  </si>
-  <si>
-    <t>  079 3279 0824</t>
-  </si>
-  <si>
-    <t>28 West Lane</t>
-  </si>
-  <si>
-    <t>Dalton-le-dale</t>
-  </si>
-  <si>
-    <t> SR7 3NE</t>
-  </si>
-  <si>
-    <t>  078 4999 2735</t>
-  </si>
-  <si>
-    <t>47 Crown Street</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t> W1H 8BR</t>
-  </si>
-  <si>
-    <t>  077 1233 8701</t>
-  </si>
-  <si>
-    <t>81 Sutton Wick Lane</t>
-  </si>
-  <si>
-    <t>Brill</t>
-  </si>
-  <si>
-    <t> HP18 8DP</t>
-  </si>
-  <si>
-    <t>  079 8227 4455</t>
-  </si>
-  <si>
-    <t>66 Kendell Street</t>
-  </si>
-  <si>
-    <t>Shenfield</t>
-  </si>
-  <si>
-    <t> CM15 8RB</t>
-  </si>
-  <si>
-    <t>  077 5499 9255</t>
-  </si>
-  <si>
-    <t>1 Davids Lane</t>
-  </si>
-  <si>
-    <t>Sturbridge</t>
-  </si>
-  <si>
-    <t> ST21 2ZY</t>
-  </si>
-  <si>
-    <t>  079 6010 3068</t>
-  </si>
-  <si>
-    <t>5 Harehills Lane</t>
-  </si>
-  <si>
-    <t>Rudgeway</t>
-  </si>
-  <si>
-    <t> BS12 7WF</t>
-  </si>
-  <si>
-    <t>  070 8404 8084</t>
-  </si>
-  <si>
-    <t>98 Golf Road</t>
-  </si>
-  <si>
-    <t>Swainsthorpe</t>
-  </si>
-  <si>
-    <t> NR14 4NR</t>
-  </si>
-  <si>
-    <t>  077 6040 0333</t>
+    <t> DG7 6ER</t>
+  </si>
+  <si>
+    <t>  070 3741 9759</t>
+  </si>
+  <si>
+    <t>66 Cefn Road</t>
+  </si>
+  <si>
+    <t>Farnham</t>
+  </si>
+  <si>
+    <t> IP17 1AH</t>
+  </si>
+  <si>
+    <t>  070 4181 3118</t>
+  </si>
+  <si>
+    <t>62 Castledore Road</t>
+  </si>
+  <si>
+    <t>Tullymurdoch</t>
+  </si>
+  <si>
+    <t> PH11 3EQ</t>
+  </si>
+  <si>
+    <t>  078 8178 0551</t>
+  </si>
+  <si>
+    <t>31 Monks Way</t>
+  </si>
+  <si>
+    <t>Tormarton</t>
+  </si>
+  <si>
+    <t> GL9 6RW</t>
+  </si>
+  <si>
+    <t>  078 7983 5291</t>
+  </si>
+  <si>
+    <t>87 Kendell Street</t>
+  </si>
+  <si>
+    <t>Sheanachie</t>
+  </si>
+  <si>
+    <t> PA28 8XL</t>
+  </si>
+  <si>
+    <t>  070 2784 8234</t>
+  </si>
+  <si>
+    <t>11 Ilchester Road</t>
+  </si>
+  <si>
+    <t>Murrow</t>
+  </si>
+  <si>
+    <t> PE13 2XP</t>
+  </si>
+  <si>
+    <t>  079 5772 1018</t>
+  </si>
+  <si>
+    <t>3 East Street</t>
+  </si>
+  <si>
+    <t>Marford</t>
+  </si>
+  <si>
+    <t> LL12 4PF</t>
+  </si>
+  <si>
+    <t>  079 7658 4028</t>
+  </si>
+  <si>
+    <t>1 Layburn Court</t>
+  </si>
+  <si>
+    <t>Treales</t>
+  </si>
+  <si>
+    <t> PR4 4YT</t>
+  </si>
+  <si>
+    <t>  078 4845 0989</t>
+  </si>
+  <si>
+    <t>8 Berkeley Rd</t>
+  </si>
+  <si>
+    <t>Stratford Tony</t>
+  </si>
+  <si>
+    <t> SP5 8ZB</t>
+  </si>
+  <si>
+    <t>  078 1364 2877</t>
+  </si>
+  <si>
+    <t>14 Marlborough Crescent</t>
+  </si>
+  <si>
+    <t>South Wheatley</t>
+  </si>
+  <si>
+    <t> PL15 4DS</t>
+  </si>
+  <si>
+    <t>  070 6070 8231</t>
+  </si>
+  <si>
+    <t>91 Park Place</t>
+  </si>
+  <si>
+    <t>Cashlie</t>
+  </si>
+  <si>
+    <t> PH15 1PY</t>
+  </si>
+  <si>
+    <t>  078 1118 6055</t>
+  </si>
+  <si>
+    <t>97 Scotswood Road</t>
+  </si>
+  <si>
+    <t>Hook</t>
+  </si>
+  <si>
+    <t> SN4 4PA</t>
+  </si>
+  <si>
+    <t>  070 3965 9776</t>
+  </si>
+  <si>
+    <t>55 New Dover Rd</t>
+  </si>
+  <si>
+    <t>Walford</t>
+  </si>
+  <si>
+    <t> SY7 5NS</t>
+  </si>
+  <si>
+    <t>  070 2114 8804</t>
+  </si>
+  <si>
+    <t>57 Ivy Lane</t>
+  </si>
+  <si>
+    <t>Warcop</t>
+  </si>
+  <si>
+    <t> CA16 9HL</t>
+  </si>
+  <si>
+    <t>  079 3848 4962</t>
+  </si>
+  <si>
+    <t>51 Fore St</t>
+  </si>
+  <si>
+    <t>Tullich</t>
+  </si>
+  <si>
+    <t> PA34 7BD</t>
+  </si>
+  <si>
+    <t>  078 8973 0140</t>
+  </si>
+  <si>
+    <t>59 Prospect Hill</t>
+  </si>
+  <si>
+    <t>Drighlington</t>
+  </si>
+  <si>
+    <t> BD11 8EU</t>
+  </si>
+  <si>
+    <t>  079 5511 9963</t>
+  </si>
+  <si>
+    <t>52 Long Street</t>
+  </si>
+  <si>
+    <t>Millington</t>
+  </si>
+  <si>
+    <t> YO4 7AD</t>
+  </si>
+  <si>
+    <t>  079 7677 7169</t>
+  </si>
+  <si>
+    <t>87 Park End St</t>
+  </si>
+  <si>
+    <t>Bromsberrow Heath</t>
+  </si>
+  <si>
+    <t> HR8 2EZ</t>
+  </si>
+  <si>
+    <t>  078 6212 5936</t>
+  </si>
+  <si>
+    <t>80 St Omers Road</t>
+  </si>
+  <si>
+    <t>Holbury</t>
+  </si>
+  <si>
+    <t> SO45 4FU</t>
+  </si>
+  <si>
+    <t>  079 6037 8527</t>
+  </si>
+  <si>
+    <t>35 Rhosddu Rd</t>
+  </si>
+  <si>
+    <t>Fincham</t>
+  </si>
+  <si>
+    <t> PE33 5SS</t>
+  </si>
+  <si>
+    <t>  079 5001 0111</t>
+  </si>
+  <si>
+    <t>35 Hounslow Rd</t>
+  </si>
+  <si>
+    <t>Somersal Herbert</t>
+  </si>
+  <si>
+    <t> DE6 4LU</t>
+  </si>
+  <si>
+    <t>  077 0353 8096</t>
+  </si>
+  <si>
+    <t>30 Kingsway North</t>
+  </si>
+  <si>
+    <t>Holt Fleet</t>
+  </si>
+  <si>
+    <t> WR9 9YS</t>
+  </si>
+  <si>
+    <t>  070 8072 3542</t>
+  </si>
+  <si>
+    <t>39 Dover Road</t>
+  </si>
+  <si>
+    <t>Westfield</t>
+  </si>
+  <si>
+    <t> TN35 0PE</t>
+  </si>
+  <si>
+    <t>  070 6015 3999</t>
+  </si>
+  <si>
+    <t>80 North Road</t>
+  </si>
+  <si>
+    <t>Netherton</t>
+  </si>
+  <si>
+    <t> DD9 8RS</t>
+  </si>
+  <si>
+    <t>  079 1695 2620</t>
+  </si>
+  <si>
+    <t>1 St Maurices Road</t>
+  </si>
+  <si>
+    <t>Preston Brook</t>
+  </si>
+  <si>
+    <t> WA7 1NP</t>
+  </si>
+  <si>
+    <t>  070 1407 9050</t>
+  </si>
+  <si>
+    <t>53 Worthy Lane</t>
+  </si>
+  <si>
+    <t>Mayford</t>
+  </si>
+  <si>
+    <t> GU22 7LG</t>
+  </si>
+  <si>
+    <t>  070 3776 8580</t>
+  </si>
+  <si>
+    <t>36 Manor Close</t>
+  </si>
+  <si>
+    <t>Dinvin</t>
+  </si>
+  <si>
+    <t> DG9 9NX</t>
+  </si>
+  <si>
+    <t>  077 4219 0182</t>
   </si>
   <si>
     <t>56 Grenoble Road</t>
   </si>
   <si>
-    <t>Bredon</t>
-  </si>
-  <si>
-    <t> GL20 2NH</t>
-  </si>
-  <si>
-    <t>  070 6900 0619</t>
-  </si>
-  <si>
-    <t>50 Dover Road</t>
-  </si>
-  <si>
-    <t>West Wick</t>
-  </si>
-  <si>
-    <t> BS24 4QJ</t>
-  </si>
-  <si>
-    <t>  078 8762 6201</t>
-  </si>
-  <si>
-    <t>22 High St</t>
-  </si>
-  <si>
-    <t>Thurso</t>
-  </si>
-  <si>
-    <t> KW14 9FT</t>
-  </si>
-  <si>
-    <t>  079 1122 5169</t>
-  </si>
-  <si>
-    <t>Solihull</t>
-  </si>
-  <si>
-    <t> B91 0EG</t>
-  </si>
-  <si>
-    <t>  078 3118 7162</t>
-  </si>
-  <si>
-    <t>28 Fraserburgh Rd</t>
-  </si>
-  <si>
-    <t>Linchmere</t>
-  </si>
-  <si>
-    <t> GU27 6SP</t>
-  </si>
-  <si>
-    <t>  079 4983 2210</t>
-  </si>
-  <si>
-    <t>62 Golden Knowes Road</t>
-  </si>
-  <si>
-    <t>Freeby</t>
-  </si>
-  <si>
-    <t> LE14 0YL</t>
-  </si>
-  <si>
-    <t>  077 8280 5554</t>
-  </si>
-  <si>
-    <t>5 Fore St</t>
-  </si>
-  <si>
-    <t>Trumpan</t>
-  </si>
-  <si>
-    <t> IV55 8SS</t>
-  </si>
-  <si>
-    <t>  079 1684 7218</t>
-  </si>
-  <si>
-    <t>39 Wressle Road</t>
-  </si>
-  <si>
-    <t>Pitkevy</t>
-  </si>
-  <si>
-    <t> KY6 9EU</t>
-  </si>
-  <si>
-    <t>  070 6532 3390</t>
-  </si>
-  <si>
-    <t>55 Lairg Road</t>
-  </si>
-  <si>
-    <t>Newarthill</t>
-  </si>
-  <si>
-    <t> ML1 1ZE</t>
-  </si>
-  <si>
-    <t>  070 1101 9126</t>
+    <t>Breakon</t>
+  </si>
+  <si>
+    <t> ZE2 7YX</t>
+  </si>
+  <si>
+    <t>  077 2488 5919</t>
+  </si>
+  <si>
+    <t>33 Moulton Road</t>
+  </si>
+  <si>
+    <t>Gyrn Goch</t>
+  </si>
+  <si>
+    <t> LL54 5LA</t>
+  </si>
+  <si>
+    <t>  078 0924 1084</t>
+  </si>
+  <si>
+    <t>31 Wressle Road</t>
+  </si>
+  <si>
+    <t>Poffley End</t>
+  </si>
+  <si>
+    <t> OX8 5HS</t>
+  </si>
+  <si>
+    <t>  070 7683 6981</t>
+  </si>
+  <si>
+    <t>26 Whitby Road</t>
+  </si>
+  <si>
+    <t>Denend</t>
+  </si>
+  <si>
+    <t> AB54 9TX</t>
+  </si>
+  <si>
+    <t>  079 1533 2310</t>
+  </si>
+  <si>
+    <t>6 High St</t>
+  </si>
+  <si>
+    <t>Thurnham</t>
+  </si>
+  <si>
+    <t> ME14 2LR</t>
+  </si>
+  <si>
+    <t>  079 1429 7438</t>
+  </si>
+  <si>
+    <t>98 Ross Road</t>
+  </si>
+  <si>
+    <t>Markington</t>
+  </si>
+  <si>
+    <t> HG3 8AA</t>
+  </si>
+  <si>
+    <t>  078 7843 5308</t>
+  </si>
+  <si>
+    <t>30 Scarcroft Road</t>
+  </si>
+  <si>
+    <t>Porlock</t>
+  </si>
+  <si>
+    <t> TA24 5TP</t>
+  </si>
+  <si>
+    <t>  070 7265 9414</t>
+  </si>
+  <si>
+    <t>90 Copthorne Way</t>
+  </si>
+  <si>
+    <t>Camault Muir</t>
+  </si>
+  <si>
+    <t> IV4 7WT</t>
+  </si>
+  <si>
+    <t>  077 0714 2313</t>
+  </si>
+  <si>
+    <t>99 Merthyr Road</t>
+  </si>
+  <si>
+    <t>Burnett</t>
+  </si>
+  <si>
+    <t> BS18 1ZB</t>
+  </si>
+  <si>
+    <t>  079 2486 3016</t>
+  </si>
+  <si>
+    <t>11 Iffley Road</t>
+  </si>
+  <si>
+    <t>Brockfield</t>
+  </si>
+  <si>
+    <t> YO32 8TZ</t>
+  </si>
+  <si>
+    <t>  077 3382 8535</t>
+  </si>
+  <si>
+    <t>66 Ash Lane</t>
+  </si>
+  <si>
+    <t>Yockenthwaite</t>
+  </si>
+  <si>
+    <t> BD23 8AS</t>
+  </si>
+  <si>
+    <t>  070 1071 3739</t>
+  </si>
+  <si>
+    <t>1 Lammas Street</t>
+  </si>
+  <si>
+    <t>Great Cheverell</t>
+  </si>
+  <si>
+    <t> SN10 5NG</t>
+  </si>
+  <si>
+    <t>  079 7739 6233</t>
+  </si>
+  <si>
+    <t>55 Moulton Road</t>
+  </si>
+  <si>
+    <t>Gurney Slade</t>
+  </si>
+  <si>
+    <t> BA3 1DT</t>
+  </si>
+  <si>
+    <t>  078 1594 7423</t>
+  </si>
+  <si>
+    <t>34 Bouverie Road</t>
+  </si>
+  <si>
+    <t>Wetheringsett</t>
+  </si>
+  <si>
+    <t> IP14 5ZB</t>
+  </si>
+  <si>
+    <t>  077 0503 2128</t>
+  </si>
+  <si>
+    <t>18 Prince Consort Road</t>
+  </si>
+  <si>
+    <t>Kenknock</t>
+  </si>
+  <si>
+    <t> PH15 0GF</t>
+  </si>
+  <si>
+    <t>  078 3948 5422</t>
+  </si>
+  <si>
+    <t>64 Prestwick Road</t>
+  </si>
+  <si>
+    <t>Invercassley</t>
+  </si>
+  <si>
+    <t> IV27 5TE</t>
+  </si>
+  <si>
+    <t>  079 8896 4879</t>
+  </si>
+  <si>
+    <t>13 Lincoln Green Lane</t>
+  </si>
+  <si>
+    <t>Church End</t>
+  </si>
+  <si>
+    <t> PE13 2HE</t>
+  </si>
+  <si>
+    <t>  077 7463 4142</t>
+  </si>
+  <si>
+    <t>49 Scrimshire Lane</t>
+  </si>
+  <si>
+    <t>Aston Somerville</t>
+  </si>
+  <si>
+    <t> WR12 2EY</t>
+  </si>
+  <si>
+    <t>  070 8316 4213</t>
+  </si>
+  <si>
+    <t>48 Winchester Rd</t>
+  </si>
+  <si>
+    <t>Methil</t>
+  </si>
+  <si>
+    <t> KY8 0YN</t>
+  </si>
+  <si>
+    <t>  078 8620 8709</t>
+  </si>
+  <si>
+    <t>86 Argyll Street</t>
+  </si>
+  <si>
+    <t>Stainforth</t>
+  </si>
+  <si>
+    <t> BD24 0EY</t>
+  </si>
+  <si>
+    <t>  070 2275 8871</t>
+  </si>
+  <si>
+    <t>44 Harehills Lane</t>
+  </si>
+  <si>
+    <t>Rugby</t>
+  </si>
+  <si>
+    <t> CV21 7WT</t>
+  </si>
+  <si>
+    <t>  077 8595 8027</t>
+  </si>
+  <si>
+    <t>53 Fordham Rd</t>
+  </si>
+  <si>
+    <t>Halloughton</t>
+  </si>
+  <si>
+    <t> NG25 2BA</t>
+  </si>
+  <si>
+    <t>  079 1243 0234</t>
   </si>
 </sst>
 </file>
@@ -2106,7 +2115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2122,6 +2131,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2438,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B28299-EDF9-4364-889F-BB3A87976C85}">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2458,7 +2476,7 @@
     <col min="10" max="10" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>292</v>
       </c>
@@ -2490,67 +2508,67 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B2" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="I2" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="I3" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>370</v>
       </c>
     </row>
@@ -2559,28 +2577,28 @@
         <v>379</v>
       </c>
       <c r="B4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E4" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>318</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J4" t="s">
         <v>369</v>
@@ -2591,28 +2609,28 @@
         <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>319</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J5" t="s">
         <v>369</v>
@@ -2623,28 +2641,28 @@
         <v>381</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F6" t="s">
         <v>96</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>320</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J6" t="s">
         <v>370</v>
@@ -2655,28 +2673,28 @@
         <v>382</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F7" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>321</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J7" t="s">
         <v>369</v>
@@ -2687,28 +2705,28 @@
         <v>383</v>
       </c>
       <c r="B8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D8" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>322</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J8" t="s">
         <v>369</v>
@@ -2719,28 +2737,28 @@
         <v>384</v>
       </c>
       <c r="B9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E9" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F9" t="s">
         <v>96</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>323</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J9" t="s">
         <v>370</v>
@@ -2751,28 +2769,28 @@
         <v>385</v>
       </c>
       <c r="B10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E10" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>324</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J10" t="s">
         <v>369</v>
@@ -2783,28 +2801,28 @@
         <v>386</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D11" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E11" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>325</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J11" t="s">
         <v>369</v>
@@ -2815,28 +2833,28 @@
         <v>387</v>
       </c>
       <c r="B12" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E12" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>326</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J12" t="s">
         <v>370</v>
@@ -2847,28 +2865,28 @@
         <v>388</v>
       </c>
       <c r="B13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D13" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E13" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>327</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J13" t="s">
         <v>369</v>
@@ -2879,28 +2897,28 @@
         <v>389</v>
       </c>
       <c r="B14" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E14" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>328</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J14" t="s">
         <v>369</v>
@@ -2911,28 +2929,28 @@
         <v>390</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D15" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E15" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>329</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J15" t="s">
         <v>370</v>
@@ -2943,28 +2961,28 @@
         <v>391</v>
       </c>
       <c r="B16" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C16" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D16" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E16" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>330</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J16" t="s">
         <v>369</v>
@@ -2975,31 +2993,31 @@
         <v>392</v>
       </c>
       <c r="B17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C17" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D17" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E17" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>331</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -3007,28 +3025,28 @@
         <v>393</v>
       </c>
       <c r="B18" t="s">
-        <v>441</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D18" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E18" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>332</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J18" t="s">
         <v>370</v>
@@ -3039,28 +3057,28 @@
         <v>394</v>
       </c>
       <c r="B19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C19" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="D19" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E19" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>333</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J19" t="s">
         <v>369</v>
@@ -3071,28 +3089,28 @@
         <v>395</v>
       </c>
       <c r="B20" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C20" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D20" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E20" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F20" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>334</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J20" t="s">
         <v>369</v>
@@ -3103,28 +3121,28 @@
         <v>396</v>
       </c>
       <c r="B21" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C21" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D21" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E21" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F21" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>335</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J21" t="s">
         <v>370</v>
@@ -3135,31 +3153,31 @@
         <v>397</v>
       </c>
       <c r="B22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C22" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D22" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E22" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>336</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -3167,28 +3185,28 @@
         <v>398</v>
       </c>
       <c r="B23" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C23" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D23" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E23" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F23" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>337</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J23" t="s">
         <v>369</v>
@@ -3199,31 +3217,31 @@
         <v>399</v>
       </c>
       <c r="B24" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C24" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D24" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E24" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>338</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J24" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -3231,31 +3249,31 @@
         <v>400</v>
       </c>
       <c r="B25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D25" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E25" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>339</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J25" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -3263,31 +3281,31 @@
         <v>401</v>
       </c>
       <c r="B26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C26" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="E26" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F26" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>340</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J26" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -3295,31 +3313,31 @@
         <v>402</v>
       </c>
       <c r="B27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C27" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D27" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="E27" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F27" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>341</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J27" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -3327,28 +3345,28 @@
         <v>403</v>
       </c>
       <c r="B28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C28" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D28" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E28" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F28" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>342</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J28" t="s">
         <v>369</v>
@@ -3359,31 +3377,31 @@
         <v>404</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C29" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D29" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="E29" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F29" t="s">
         <v>96</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>343</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -3391,28 +3409,28 @@
         <v>405</v>
       </c>
       <c r="B30" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C30" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D30" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E30" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="F30" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>344</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J30" t="s">
         <v>370</v>
@@ -3423,28 +3441,28 @@
         <v>406</v>
       </c>
       <c r="B31" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D31" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E31" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="F31" t="s">
         <v>96</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>345</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J31" t="s">
         <v>369</v>
@@ -3455,28 +3473,28 @@
         <v>407</v>
       </c>
       <c r="B32" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D32" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E32" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F32" t="s">
         <v>96</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>346</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J32" t="s">
         <v>369</v>
@@ -3487,28 +3505,28 @@
         <v>408</v>
       </c>
       <c r="B33" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C33" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D33" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E33" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F33" t="s">
         <v>96</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>347</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J33" t="s">
         <v>370</v>
@@ -3519,31 +3537,31 @@
         <v>409</v>
       </c>
       <c r="B34" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C34" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D34" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E34" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F34" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>348</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J34" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -3551,28 +3569,28 @@
         <v>410</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C35" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D35" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E35" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F35" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>349</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J35" t="s">
         <v>369</v>
@@ -3583,31 +3601,31 @@
         <v>411</v>
       </c>
       <c r="B36" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C36" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D36" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E36" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="F36" t="s">
         <v>96</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>350</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -3615,31 +3633,31 @@
         <v>412</v>
       </c>
       <c r="B37" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C37" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D37" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E37" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J37" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -3647,31 +3665,31 @@
         <v>413</v>
       </c>
       <c r="B38" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D38" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E38" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>352</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -3679,31 +3697,31 @@
         <v>414</v>
       </c>
       <c r="B39" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C39" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D39" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E39" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>353</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J39" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -3711,28 +3729,28 @@
         <v>415</v>
       </c>
       <c r="B40" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C40" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="D40" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E40" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J40" t="s">
         <v>369</v>
@@ -3740,63 +3758,63 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>416</v>
       </c>
       <c r="B41" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D41" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E41" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F41" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>355</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B42" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C42" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E42" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F42" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>356</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
         <v>370</v>
@@ -3804,31 +3822,31 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C43" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="D43" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E43" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F43" t="s">
         <v>96</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>357</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J43" t="s">
         <v>369</v>
@@ -3836,31 +3854,31 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B44" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C44" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D44" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E44" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F44" t="s">
         <v>96</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>358</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J44" t="s">
         <v>369</v>
@@ -3868,31 +3886,31 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B45" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C45" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D45" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E45" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>359</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J45" t="s">
         <v>370</v>
@@ -3900,63 +3918,63 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B46" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C46" t="s">
-        <v>498</v>
+        <v>652</v>
       </c>
       <c r="D46" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="E46" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="F46" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>360</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B47" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C47" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D47" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E47" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F47" t="s">
         <v>96</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>361</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J47" t="s">
         <v>369</v>
@@ -3964,195 +3982,221 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>472</v>
       </c>
       <c r="C48" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="D48" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="E48" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="F48" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>362</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J48" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B49" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C49" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D49" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="E49" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>363</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J49" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B50" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C50" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="D50" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E50" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="F50" t="s">
         <v>96</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>364</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J50" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B51" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C51" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D51" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E51" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="F51" t="s">
         <v>96</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I51" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="J51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>308</v>
+      </c>
+      <c r="B52" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" t="s">
+        <v>310</v>
+      </c>
+      <c r="D52" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" t="s">
+        <v>312</v>
+      </c>
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="H52" t="s">
+        <v>313</v>
+      </c>
+      <c r="I52" t="s">
         <v>367</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J52" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{6407EF59-3B74-4314-8191-6E2219C095D1}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{7665F471-1FC2-4BF4-BC63-C5AD78D6480C}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{800D4ED2-5B9E-4B36-9E06-7717C62AEB0C}"/>
-    <hyperlink ref="H5" r:id="rId4" xr:uid="{37AFFBF9-02EA-42F2-A5BE-BA93622023C2}"/>
-    <hyperlink ref="H6" r:id="rId5" xr:uid="{4B50ACCF-BC05-4FE8-BC47-6B9920360FEB}"/>
-    <hyperlink ref="H7" r:id="rId6" xr:uid="{FD73DDB0-110C-45C6-A765-738FCFF800CB}"/>
-    <hyperlink ref="H8" r:id="rId7" xr:uid="{C4A3B435-F328-4A32-9820-828DADD34E91}"/>
-    <hyperlink ref="H9" r:id="rId8" xr:uid="{BF8B1724-236B-4A64-92C4-3960A8C155B9}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{3AADBA7E-824F-413E-AB22-AE91023FE4F7}"/>
-    <hyperlink ref="H11" r:id="rId10" xr:uid="{B08BBE31-CB9C-4599-ABB9-DEBB8E3F8242}"/>
-    <hyperlink ref="H12" r:id="rId11" xr:uid="{63B0A737-2B73-40F2-B139-ED8183B06303}"/>
-    <hyperlink ref="H13" r:id="rId12" xr:uid="{89CE05CB-3415-4091-9E02-C66EBC26AB82}"/>
-    <hyperlink ref="H14" r:id="rId13" xr:uid="{34C9EC41-5B56-44E4-AF12-8E1DD04C39F8}"/>
-    <hyperlink ref="H15" r:id="rId14" xr:uid="{1BAB9ADD-8A8C-44A4-BD41-9FCA3CE6AEBD}"/>
-    <hyperlink ref="H16" r:id="rId15" xr:uid="{197D3838-7E29-46A5-AD12-6E26734032AB}"/>
-    <hyperlink ref="H17" r:id="rId16" xr:uid="{CDC808CD-B6EF-4085-A912-4C9D1C340125}"/>
-    <hyperlink ref="H18" r:id="rId17" xr:uid="{5D989ACA-6C72-40F3-A91A-37A925B8EC5F}"/>
-    <hyperlink ref="H19" r:id="rId18" xr:uid="{78F6FCB9-42C8-4E14-BFD3-76DDFCCA5053}"/>
-    <hyperlink ref="H20" r:id="rId19" xr:uid="{D3B156BD-1807-4277-9F66-C9DEF08C4A82}"/>
-    <hyperlink ref="H21" r:id="rId20" xr:uid="{44EF34D3-5FBF-4595-A155-93423FBAC81C}"/>
-    <hyperlink ref="H22" r:id="rId21" xr:uid="{06322285-327F-467C-97E7-C6B64E79C62C}"/>
-    <hyperlink ref="H23" r:id="rId22" xr:uid="{FAC54330-561F-41DC-ACEB-0E20E08E101E}"/>
-    <hyperlink ref="H24" r:id="rId23" xr:uid="{719ADDF1-B12D-4158-8A83-CD267C353926}"/>
-    <hyperlink ref="H25" r:id="rId24" xr:uid="{2CAAF4FA-6A82-4FE8-AFD5-8C38FF279ED6}"/>
-    <hyperlink ref="H26" r:id="rId25" xr:uid="{1526E699-06CF-499E-B259-4A38698DACFE}"/>
-    <hyperlink ref="H27" r:id="rId26" xr:uid="{A6BEFA8C-E70F-4DED-8921-6D43A34E64D5}"/>
-    <hyperlink ref="H28" r:id="rId27" xr:uid="{C55A4F94-5470-4552-A001-26B0428932E2}"/>
-    <hyperlink ref="H29" r:id="rId28" xr:uid="{01F8F682-65A9-4C8E-AE71-990E1C593E4D}"/>
-    <hyperlink ref="H30" r:id="rId29" xr:uid="{C7AE02C6-E03C-4CBA-9109-9D0A5074AFA5}"/>
-    <hyperlink ref="H31" r:id="rId30" xr:uid="{146E61B6-E9B0-4061-B395-A12A3C9F77E8}"/>
-    <hyperlink ref="H32" r:id="rId31" xr:uid="{5622E2B3-8934-49E1-886C-FEC24BC1F09B}"/>
-    <hyperlink ref="H33" r:id="rId32" xr:uid="{D684F69F-6701-4A8D-A0A6-5CA511F29169}"/>
-    <hyperlink ref="H34" r:id="rId33" xr:uid="{587ED9D3-E36F-47E3-9E40-F91CC7B498CA}"/>
-    <hyperlink ref="H35" r:id="rId34" xr:uid="{975612BD-0C5F-4D66-B84C-95EA0ECA4E06}"/>
-    <hyperlink ref="H36" r:id="rId35" xr:uid="{58369F24-9F01-4530-B789-31811AE88DD4}"/>
-    <hyperlink ref="H37" r:id="rId36" xr:uid="{E6F93C20-3C8D-47B9-9D57-AB08A9035BF1}"/>
-    <hyperlink ref="H38" r:id="rId37" xr:uid="{0CEE89CF-8B78-47C0-9897-4F04FC4F8E1B}"/>
-    <hyperlink ref="H39" r:id="rId38" xr:uid="{EA98CB6B-9EDE-4284-AA86-5CA15334CE3D}"/>
-    <hyperlink ref="H40" r:id="rId39" xr:uid="{7DF7451F-9BCC-446D-9FD6-4835DDB242BA}"/>
-    <hyperlink ref="H41" r:id="rId40" xr:uid="{11382ACD-38B0-4336-9D57-AE31C4AD2387}"/>
-    <hyperlink ref="H42:H51" r:id="rId41" display="AndyLucy8701+40@gmail.com " xr:uid="{91FE15A0-F855-4D0E-B55E-8D8B750744EF}"/>
-    <hyperlink ref="H42" r:id="rId42" xr:uid="{1BC03E7F-C6AF-4850-97CE-4CD7952EC727}"/>
-    <hyperlink ref="H43" r:id="rId43" xr:uid="{73E9AFA7-954C-438C-A827-E1ED18B0F550}"/>
-    <hyperlink ref="H44" r:id="rId44" xr:uid="{0A9289AB-41E1-4133-B33F-ACBA893C2342}"/>
-    <hyperlink ref="H45" r:id="rId45" xr:uid="{8098165E-B602-4E76-AC06-30547F2E52E8}"/>
-    <hyperlink ref="H46" r:id="rId46" xr:uid="{C958069E-13DB-4FC9-AB0C-802750911E09}"/>
-    <hyperlink ref="H47" r:id="rId47" xr:uid="{6D0EF678-3776-4BCE-93B4-AC6A857F5F47}"/>
-    <hyperlink ref="H48" r:id="rId48" xr:uid="{7FE70A8F-39EE-4BB2-AE75-609CF66C8821}"/>
-    <hyperlink ref="H49" r:id="rId49" xr:uid="{75EC58F1-2CE9-4EDF-8744-5E79C592D551}"/>
-    <hyperlink ref="H50" r:id="rId50" xr:uid="{148D9223-8BF7-497B-9E77-65D7559FBC2B}"/>
-    <hyperlink ref="H51" r:id="rId51" xr:uid="{5A237873-A6E6-4AA0-9A9F-7A6639FE1E6B}"/>
+    <hyperlink ref="H4" r:id="rId1" xr:uid="{800D4ED2-5B9E-4B36-9E06-7717C62AEB0C}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{37AFFBF9-02EA-42F2-A5BE-BA93622023C2}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{4B50ACCF-BC05-4FE8-BC47-6B9920360FEB}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{FD73DDB0-110C-45C6-A765-738FCFF800CB}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{C4A3B435-F328-4A32-9820-828DADD34E91}"/>
+    <hyperlink ref="H9" r:id="rId6" xr:uid="{BF8B1724-236B-4A64-92C4-3960A8C155B9}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{3AADBA7E-824F-413E-AB22-AE91023FE4F7}"/>
+    <hyperlink ref="H11" r:id="rId8" xr:uid="{B08BBE31-CB9C-4599-ABB9-DEBB8E3F8242}"/>
+    <hyperlink ref="H12" r:id="rId9" xr:uid="{63B0A737-2B73-40F2-B139-ED8183B06303}"/>
+    <hyperlink ref="H13" r:id="rId10" xr:uid="{89CE05CB-3415-4091-9E02-C66EBC26AB82}"/>
+    <hyperlink ref="H14" r:id="rId11" xr:uid="{34C9EC41-5B56-44E4-AF12-8E1DD04C39F8}"/>
+    <hyperlink ref="H15" r:id="rId12" xr:uid="{1BAB9ADD-8A8C-44A4-BD41-9FCA3CE6AEBD}"/>
+    <hyperlink ref="H16" r:id="rId13" xr:uid="{197D3838-7E29-46A5-AD12-6E26734032AB}"/>
+    <hyperlink ref="H17" r:id="rId14" xr:uid="{CDC808CD-B6EF-4085-A912-4C9D1C340125}"/>
+    <hyperlink ref="H18" r:id="rId15" xr:uid="{5D989ACA-6C72-40F3-A91A-37A925B8EC5F}"/>
+    <hyperlink ref="H19" r:id="rId16" xr:uid="{78F6FCB9-42C8-4E14-BFD3-76DDFCCA5053}"/>
+    <hyperlink ref="H20" r:id="rId17" xr:uid="{D3B156BD-1807-4277-9F66-C9DEF08C4A82}"/>
+    <hyperlink ref="H21" r:id="rId18" xr:uid="{44EF34D3-5FBF-4595-A155-93423FBAC81C}"/>
+    <hyperlink ref="H22" r:id="rId19" xr:uid="{06322285-327F-467C-97E7-C6B64E79C62C}"/>
+    <hyperlink ref="H23" r:id="rId20" xr:uid="{FAC54330-561F-41DC-ACEB-0E20E08E101E}"/>
+    <hyperlink ref="H24" r:id="rId21" xr:uid="{719ADDF1-B12D-4158-8A83-CD267C353926}"/>
+    <hyperlink ref="H25" r:id="rId22" xr:uid="{2CAAF4FA-6A82-4FE8-AFD5-8C38FF279ED6}"/>
+    <hyperlink ref="H26" r:id="rId23" xr:uid="{1526E699-06CF-499E-B259-4A38698DACFE}"/>
+    <hyperlink ref="H27" r:id="rId24" xr:uid="{A6BEFA8C-E70F-4DED-8921-6D43A34E64D5}"/>
+    <hyperlink ref="H28" r:id="rId25" xr:uid="{C55A4F94-5470-4552-A001-26B0428932E2}"/>
+    <hyperlink ref="H29" r:id="rId26" xr:uid="{01F8F682-65A9-4C8E-AE71-990E1C593E4D}"/>
+    <hyperlink ref="H30" r:id="rId27" xr:uid="{C7AE02C6-E03C-4CBA-9109-9D0A5074AFA5}"/>
+    <hyperlink ref="H31" r:id="rId28" xr:uid="{146E61B6-E9B0-4061-B395-A12A3C9F77E8}"/>
+    <hyperlink ref="H32" r:id="rId29" xr:uid="{5622E2B3-8934-49E1-886C-FEC24BC1F09B}"/>
+    <hyperlink ref="H33" r:id="rId30" xr:uid="{D684F69F-6701-4A8D-A0A6-5CA511F29169}"/>
+    <hyperlink ref="H34" r:id="rId31" xr:uid="{587ED9D3-E36F-47E3-9E40-F91CC7B498CA}"/>
+    <hyperlink ref="H35" r:id="rId32" xr:uid="{975612BD-0C5F-4D66-B84C-95EA0ECA4E06}"/>
+    <hyperlink ref="H36" r:id="rId33" xr:uid="{58369F24-9F01-4530-B789-31811AE88DD4}"/>
+    <hyperlink ref="H37" r:id="rId34" xr:uid="{E6F93C20-3C8D-47B9-9D57-AB08A9035BF1}"/>
+    <hyperlink ref="H38" r:id="rId35" xr:uid="{0CEE89CF-8B78-47C0-9897-4F04FC4F8E1B}"/>
+    <hyperlink ref="H39" r:id="rId36" xr:uid="{EA98CB6B-9EDE-4284-AA86-5CA15334CE3D}"/>
+    <hyperlink ref="H40" r:id="rId37" xr:uid="{7DF7451F-9BCC-446D-9FD6-4835DDB242BA}"/>
+    <hyperlink ref="H41" r:id="rId38" xr:uid="{11382ACD-38B0-4336-9D57-AE31C4AD2387}"/>
+    <hyperlink ref="H42:H51" r:id="rId39" display="AndyLucy8701+40@gmail.com " xr:uid="{91FE15A0-F855-4D0E-B55E-8D8B750744EF}"/>
+    <hyperlink ref="H42" r:id="rId40" xr:uid="{1BC03E7F-C6AF-4850-97CE-4CD7952EC727}"/>
+    <hyperlink ref="H43" r:id="rId41" xr:uid="{73E9AFA7-954C-438C-A827-E1ED18B0F550}"/>
+    <hyperlink ref="H44" r:id="rId42" xr:uid="{0A9289AB-41E1-4133-B33F-ACBA893C2342}"/>
+    <hyperlink ref="H45" r:id="rId43" xr:uid="{8098165E-B602-4E76-AC06-30547F2E52E8}"/>
+    <hyperlink ref="H46" r:id="rId44" xr:uid="{C958069E-13DB-4FC9-AB0C-802750911E09}"/>
+    <hyperlink ref="H47" r:id="rId45" xr:uid="{6D0EF678-3776-4BCE-93B4-AC6A857F5F47}"/>
+    <hyperlink ref="H48" r:id="rId46" xr:uid="{7FE70A8F-39EE-4BB2-AE75-609CF66C8821}"/>
+    <hyperlink ref="H49" r:id="rId47" xr:uid="{75EC58F1-2CE9-4EDF-8744-5E79C592D551}"/>
+    <hyperlink ref="H50" r:id="rId48" xr:uid="{148D9223-8BF7-497B-9E77-65D7559FBC2B}"/>
+    <hyperlink ref="H51" r:id="rId49" xr:uid="{5A237873-A6E6-4AA0-9A9F-7A6639FE1E6B}"/>
+    <hyperlink ref="H2:H3" r:id="rId50" display="AndyLucy8701+3@gmail.com " xr:uid="{4E907F4C-22AC-48E7-A046-62A5E92825A3}"/>
+    <hyperlink ref="H2" r:id="rId51" xr:uid="{BC14E084-3626-4E9C-B3F5-BD86C1636580}"/>
+    <hyperlink ref="H3" r:id="rId52" xr:uid="{8DB683F5-26BA-4BF0-8B92-20ECBFC7FED0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -4454,7 +4498,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tobor Inc Automation/Dummy Data.xlsx
+++ b/Tobor Inc Automation/Dummy Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkhoa\Documents\UiPath\Tobor Inc Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031681B4-16FB-4CE2-8F8A-4D8D52698057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FB2BA8-7576-45D3-B73C-E177B60EF152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72" yWindow="2340" windowWidth="17280" windowHeight="9420" xr2:uid="{EF059E27-DB5C-4791-B45A-BD184D5C1698}"/>
+    <workbookView xWindow="0" yWindow="2340" windowWidth="17280" windowHeight="9420" xr2:uid="{EF059E27-DB5C-4791-B45A-BD184D5C1698}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="671">
   <si>
     <t>Eleonore</t>
   </si>
@@ -1168,901 +1168,886 @@
     <t>Weekdays+J63JJ47:J93</t>
   </si>
   <si>
-    <t>Margurite</t>
-  </si>
-  <si>
-    <t>Juliette</t>
-  </si>
-  <si>
-    <t>Samara</t>
-  </si>
-  <si>
-    <t>Bertha</t>
-  </si>
-  <si>
-    <t>Sharyl</t>
-  </si>
-  <si>
-    <t>Marguerite</t>
-  </si>
-  <si>
-    <t>Brice</t>
-  </si>
-  <si>
-    <t>Kimberli</t>
-  </si>
-  <si>
-    <t>Saul</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Elvina</t>
-  </si>
-  <si>
-    <t>Carlita</t>
-  </si>
-  <si>
-    <t>Soraya</t>
-  </si>
-  <si>
-    <t>Fidelia</t>
-  </si>
-  <si>
-    <t>Otis</t>
-  </si>
-  <si>
-    <t>Mitzi</t>
-  </si>
-  <si>
-    <t>Shellie</t>
-  </si>
-  <si>
-    <t>Onie</t>
-  </si>
-  <si>
-    <t>Mina</t>
-  </si>
-  <si>
-    <t>Joette</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Gigi</t>
-  </si>
-  <si>
-    <t>Yvone</t>
-  </si>
-  <si>
-    <t>Enrique</t>
-  </si>
-  <si>
-    <t>Madge</t>
-  </si>
-  <si>
-    <t>Ozella</t>
-  </si>
-  <si>
-    <t>Yvonne</t>
-  </si>
-  <si>
-    <t>Randee</t>
-  </si>
-  <si>
-    <t>Kristle</t>
-  </si>
-  <si>
-    <t>Sharell</t>
-  </si>
-  <si>
-    <t>Amada</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Zachary</t>
-  </si>
-  <si>
-    <t>Ossie</t>
-  </si>
-  <si>
-    <t>Beverley</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Christiana</t>
-  </si>
-  <si>
-    <t>Raeann</t>
-  </si>
-  <si>
-    <t>Audrie</t>
-  </si>
-  <si>
-    <t>Lucien</t>
-  </si>
-  <si>
-    <t>Isis</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Jacinto</t>
-  </si>
-  <si>
-    <t>Herbert</t>
-  </si>
-  <si>
-    <t>Hilde</t>
-  </si>
-  <si>
-    <t>Ty</t>
-  </si>
-  <si>
-    <t>Malika</t>
-  </si>
-  <si>
-    <t>Mariette</t>
-  </si>
-  <si>
-    <t>Gloria</t>
-  </si>
-  <si>
-    <t>Amie</t>
-  </si>
-  <si>
-    <t>Myles</t>
-  </si>
-  <si>
-    <t>Mitchell</t>
-  </si>
-  <si>
-    <t>Sawyer</t>
-  </si>
-  <si>
-    <t>Proctor</t>
-  </si>
-  <si>
-    <t>Munson</t>
-  </si>
-  <si>
-    <t>Roberson</t>
-  </si>
-  <si>
-    <t>Barlow</t>
-  </si>
-  <si>
-    <t>Hanks</t>
-  </si>
-  <si>
-    <t>Mckinley</t>
-  </si>
-  <si>
-    <t>Lackey</t>
-  </si>
-  <si>
-    <t>Garrison</t>
-  </si>
-  <si>
-    <t>Lunsford</t>
-  </si>
-  <si>
-    <t>Meier</t>
-  </si>
-  <si>
-    <t>Cobb</t>
-  </si>
-  <si>
-    <t>Farrell</t>
-  </si>
-  <si>
-    <t>Yoder</t>
-  </si>
-  <si>
-    <t>Drummond</t>
-  </si>
-  <si>
-    <t>Payne</t>
-  </si>
-  <si>
-    <t>Knutson</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>Woody</t>
-  </si>
-  <si>
-    <t>Muniz</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Bravo</t>
-  </si>
-  <si>
-    <t>Mcgrath</t>
-  </si>
-  <si>
-    <t>Mcmillan</t>
-  </si>
-  <si>
-    <t>Barton</t>
-  </si>
-  <si>
-    <t>Williamson</t>
-  </si>
-  <si>
-    <t>Mcnally</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Stafford</t>
-  </si>
-  <si>
-    <t>Neal</t>
-  </si>
-  <si>
-    <t>Pryor</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Bray</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>Starr</t>
-  </si>
-  <si>
-    <t>Gunter</t>
-  </si>
-  <si>
-    <t>Locke</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Looney</t>
-  </si>
-  <si>
-    <t>Geiger</t>
-  </si>
-  <si>
-    <t>Spaulding</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>Irving</t>
-  </si>
-  <si>
-    <t>Manning</t>
+    <t>Malia</t>
+  </si>
+  <si>
+    <t>Meza</t>
+  </si>
+  <si>
+    <t>Tabor</t>
+  </si>
+  <si>
+    <t>Latasha</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Zachariah</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Rachele</t>
+  </si>
+  <si>
+    <t>Lurline</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Lanell</t>
+  </si>
+  <si>
+    <t>Lakenya</t>
+  </si>
+  <si>
+    <t>Maynard</t>
+  </si>
+  <si>
+    <t>Dalila</t>
+  </si>
+  <si>
+    <t>Lynelle</t>
+  </si>
+  <si>
+    <t>Tuyet</t>
+  </si>
+  <si>
+    <t>Deedra</t>
+  </si>
+  <si>
+    <t>Alvina</t>
+  </si>
+  <si>
+    <t>Rodger</t>
+  </si>
+  <si>
+    <t>Angelika</t>
+  </si>
+  <si>
+    <t>Iraida</t>
+  </si>
+  <si>
+    <t>Lovella</t>
+  </si>
+  <si>
+    <t>Bernardo</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Lashon</t>
+  </si>
+  <si>
+    <t>Leisha</t>
+  </si>
+  <si>
+    <t>Crystal</t>
+  </si>
+  <si>
+    <t>Berenice</t>
+  </si>
+  <si>
+    <t>Lester</t>
+  </si>
+  <si>
+    <t>Bula</t>
+  </si>
+  <si>
+    <t>Wilfredo</t>
+  </si>
+  <si>
+    <t>Tommye</t>
+  </si>
+  <si>
+    <t>Xiao</t>
+  </si>
+  <si>
+    <t>Trisha</t>
+  </si>
+  <si>
+    <t>Ardath</t>
+  </si>
+  <si>
+    <t>Brittny</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Parthenia</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Hilaria</t>
+  </si>
+  <si>
+    <t>Franklyn</t>
+  </si>
+  <si>
+    <t>Rosalyn</t>
+  </si>
+  <si>
+    <t>Malorie</t>
+  </si>
+  <si>
+    <t>Adela</t>
+  </si>
+  <si>
+    <t>Mirella</t>
+  </si>
+  <si>
+    <t>Erlinda</t>
+  </si>
+  <si>
+    <t>Antonette</t>
+  </si>
+  <si>
+    <t>Danyell</t>
+  </si>
+  <si>
+    <t>Herlinda</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>Berg</t>
+  </si>
+  <si>
+    <t>Garner</t>
+  </si>
+  <si>
+    <t>Connelly</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>Crowe</t>
+  </si>
+  <si>
+    <t>Alvarado</t>
+  </si>
+  <si>
+    <t>Cormier</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>Whittaker</t>
+  </si>
+  <si>
+    <t>Cordero</t>
+  </si>
+  <si>
+    <t>Cline</t>
+  </si>
+  <si>
+    <t>Lucero</t>
+  </si>
+  <si>
+    <t>Shields</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Dickerson</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>Bassett</t>
+  </si>
+  <si>
+    <t>Pickett</t>
+  </si>
+  <si>
+    <t>Russo</t>
+  </si>
+  <si>
+    <t>Toney</t>
+  </si>
+  <si>
+    <t>Donovan</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Levy</t>
+  </si>
+  <si>
+    <t>Levine</t>
+  </si>
+  <si>
+    <t>Vang</t>
+  </si>
+  <si>
+    <t>Suarez</t>
+  </si>
+  <si>
+    <t>Sumner</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Snell</t>
+  </si>
+  <si>
+    <t>Belcher</t>
+  </si>
+  <si>
+    <t>Crockett</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Gilmore</t>
   </si>
   <si>
     <t>Segura</t>
   </si>
   <si>
-    <t>Dickson</t>
-  </si>
-  <si>
-    <t>48 Terrick Rd</t>
-  </si>
-  <si>
-    <t>Elmdon Heath</t>
-  </si>
-  <si>
-    <t> B92 3QD</t>
-  </si>
-  <si>
-    <t>  079 3923 9484</t>
-  </si>
-  <si>
-    <t>89 Red Lane</t>
-  </si>
-  <si>
-    <t>Eriff</t>
-  </si>
-  <si>
-    <t> DG7 6ER</t>
-  </si>
-  <si>
-    <t>  070 3741 9759</t>
-  </si>
-  <si>
-    <t>66 Cefn Road</t>
-  </si>
-  <si>
-    <t>Farnham</t>
-  </si>
-  <si>
-    <t> IP17 1AH</t>
-  </si>
-  <si>
-    <t>  070 4181 3118</t>
-  </si>
-  <si>
-    <t>62 Castledore Road</t>
-  </si>
-  <si>
-    <t>Tullymurdoch</t>
-  </si>
-  <si>
-    <t> PH11 3EQ</t>
-  </si>
-  <si>
-    <t>  078 8178 0551</t>
-  </si>
-  <si>
-    <t>31 Monks Way</t>
-  </si>
-  <si>
-    <t>Tormarton</t>
-  </si>
-  <si>
-    <t> GL9 6RW</t>
-  </si>
-  <si>
-    <t>  078 7983 5291</t>
-  </si>
-  <si>
-    <t>87 Kendell Street</t>
-  </si>
-  <si>
-    <t>Sheanachie</t>
-  </si>
-  <si>
-    <t> PA28 8XL</t>
-  </si>
-  <si>
-    <t>  070 2784 8234</t>
-  </si>
-  <si>
-    <t>11 Ilchester Road</t>
-  </si>
-  <si>
-    <t>Murrow</t>
-  </si>
-  <si>
-    <t> PE13 2XP</t>
-  </si>
-  <si>
-    <t>  079 5772 1018</t>
-  </si>
-  <si>
-    <t>3 East Street</t>
-  </si>
-  <si>
-    <t>Marford</t>
-  </si>
-  <si>
-    <t> LL12 4PF</t>
-  </si>
-  <si>
-    <t>  079 7658 4028</t>
-  </si>
-  <si>
-    <t>1 Layburn Court</t>
-  </si>
-  <si>
-    <t>Treales</t>
-  </si>
-  <si>
-    <t> PR4 4YT</t>
-  </si>
-  <si>
-    <t>  078 4845 0989</t>
-  </si>
-  <si>
-    <t>8 Berkeley Rd</t>
-  </si>
-  <si>
-    <t>Stratford Tony</t>
-  </si>
-  <si>
-    <t> SP5 8ZB</t>
-  </si>
-  <si>
-    <t>  078 1364 2877</t>
-  </si>
-  <si>
-    <t>14 Marlborough Crescent</t>
-  </si>
-  <si>
-    <t>South Wheatley</t>
-  </si>
-  <si>
-    <t> PL15 4DS</t>
-  </si>
-  <si>
-    <t>  070 6070 8231</t>
+    <t>Mccall</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>Bellamy</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Nance</t>
+  </si>
+  <si>
+    <t>Shaw</t>
+  </si>
+  <si>
+    <t>41 Ockham Road</t>
+  </si>
+  <si>
+    <t>East Somerton</t>
+  </si>
+  <si>
+    <t> NR29 9BA</t>
+  </si>
+  <si>
+    <t>  077 2683 6153</t>
+  </si>
+  <si>
+    <t>83 Copthorne Way</t>
+  </si>
+  <si>
+    <t>Calvine</t>
+  </si>
+  <si>
+    <t> PH18 6YB</t>
+  </si>
+  <si>
+    <t>  078 1765 2428</t>
+  </si>
+  <si>
+    <t>90 Great North Road</t>
+  </si>
+  <si>
+    <t>Amersham</t>
+  </si>
+  <si>
+    <t> HP7 0RG</t>
+  </si>
+  <si>
+    <t>  078 6108 4925</t>
+  </si>
+  <si>
+    <t>16 Princes Street</t>
+  </si>
+  <si>
+    <t>Rogiet</t>
+  </si>
+  <si>
+    <t> NP6 2WQ</t>
+  </si>
+  <si>
+    <t>  079 4794 8853</t>
+  </si>
+  <si>
+    <t>55 Withers Close</t>
+  </si>
+  <si>
+    <t>Alfington</t>
+  </si>
+  <si>
+    <t> EX11 6XN</t>
+  </si>
+  <si>
+    <t>  078 3652 9884</t>
+  </si>
+  <si>
+    <t>61 Old Edinburgh Road</t>
+  </si>
+  <si>
+    <t>Belmont</t>
+  </si>
+  <si>
+    <t> ZE2 3LW</t>
+  </si>
+  <si>
+    <t>  079 1979 1782</t>
+  </si>
+  <si>
+    <t>89 Harrogate Road</t>
+  </si>
+  <si>
+    <t>Rushbrooke</t>
+  </si>
+  <si>
+    <t> IP30 8LH</t>
+  </si>
+  <si>
+    <t>  077 4108 4514</t>
+  </si>
+  <si>
+    <t>2 Pendwyallt Road</t>
+  </si>
+  <si>
+    <t>Burnhope</t>
+  </si>
+  <si>
+    <t> DH7 3ZL</t>
+  </si>
+  <si>
+    <t>  070 8867 4327</t>
+  </si>
+  <si>
+    <t>23 Caerfai Bay Road</t>
+  </si>
+  <si>
+    <t>Tebay</t>
+  </si>
+  <si>
+    <t> CA10 5TE</t>
+  </si>
+  <si>
+    <t>  077 1910 1480</t>
+  </si>
+  <si>
+    <t>Presthope</t>
+  </si>
+  <si>
+    <t> TF13 0UN</t>
+  </si>
+  <si>
+    <t>  077 1897 6859</t>
+  </si>
+  <si>
+    <t>32 Guildry Street</t>
+  </si>
+  <si>
+    <t>Gartincaper</t>
+  </si>
+  <si>
+    <t> FK16 1HX</t>
+  </si>
+  <si>
+    <t>  070 0992 0644</t>
+  </si>
+  <si>
+    <t>6 Essex Rd</t>
+  </si>
+  <si>
+    <t>Tarbert</t>
+  </si>
+  <si>
+    <t> PH36 1AS</t>
+  </si>
+  <si>
+    <t>  079 4073 4471</t>
+  </si>
+  <si>
+    <t>98 Ballifeary Road</t>
+  </si>
+  <si>
+    <t>Balmerlawn</t>
+  </si>
+  <si>
+    <t> SO42 8YX</t>
+  </si>
+  <si>
+    <t>  079 1624 7748</t>
+  </si>
+  <si>
+    <t>11 Stroude Road</t>
+  </si>
+  <si>
+    <t>Skeldyke</t>
+  </si>
+  <si>
+    <t> PE20 5XP</t>
+  </si>
+  <si>
+    <t>  079 4386 8644</t>
+  </si>
+  <si>
+    <t>93 Balsham Road</t>
+  </si>
+  <si>
+    <t>Harston</t>
+  </si>
+  <si>
+    <t> CB2 5XX</t>
+  </si>
+  <si>
+    <t>  070 8169 4201</t>
+  </si>
+  <si>
+    <t>90 Wern Ddu Lane</t>
+  </si>
+  <si>
+    <t>Luddenham Court</t>
+  </si>
+  <si>
+    <t> ME13 2BF</t>
+  </si>
+  <si>
+    <t>  077 5827 7304</t>
+  </si>
+  <si>
+    <t>83 Oxford Rd</t>
+  </si>
+  <si>
+    <t>Wootton Bassett</t>
+  </si>
+  <si>
+    <t> SN4 4YH</t>
+  </si>
+  <si>
+    <t>  078 4884 9137</t>
+  </si>
+  <si>
+    <t>30 Scrimshire Lane</t>
+  </si>
+  <si>
+    <t>Askam In Furness</t>
+  </si>
+  <si>
+    <t> LA16 3NF</t>
+  </si>
+  <si>
+    <t>  079 0075 6681</t>
+  </si>
+  <si>
+    <t>45 Southlands Road</t>
+  </si>
+  <si>
+    <t>Pontnewynydd</t>
+  </si>
+  <si>
+    <t> NP4 5YU</t>
+  </si>
+  <si>
+    <t>  079 3842 1231</t>
+  </si>
+  <si>
+    <t>14 Glandovey Terrace</t>
+  </si>
+  <si>
+    <t>Tretire</t>
+  </si>
+  <si>
+    <t> HR2 7HY</t>
+  </si>
+  <si>
+    <t>  079 3625 9697</t>
+  </si>
+  <si>
+    <t>33 Hindhead Road</t>
+  </si>
+  <si>
+    <t>Easingwold</t>
+  </si>
+  <si>
+    <t> YO61 0RD</t>
+  </si>
+  <si>
+    <t>  079 0889 5787</t>
+  </si>
+  <si>
+    <t>9 Souterhead Road</t>
+  </si>
+  <si>
+    <t>Lowdham</t>
+  </si>
+  <si>
+    <t> NG14 2NS</t>
+  </si>
+  <si>
+    <t>  070 1678 1233</t>
+  </si>
+  <si>
+    <t>41 Bishopgate Street</t>
+  </si>
+  <si>
+    <t>Seacroft</t>
+  </si>
+  <si>
+    <t> LS14 0JL</t>
+  </si>
+  <si>
+    <t>  077 6150 6709</t>
+  </si>
+  <si>
+    <t>11 Red Lane</t>
+  </si>
+  <si>
+    <t>Esslemont</t>
+  </si>
+  <si>
+    <t> AB41 8TP</t>
+  </si>
+  <si>
+    <t>  077 2293 7108</t>
+  </si>
+  <si>
+    <t>55 Caerfai Bay Road</t>
+  </si>
+  <si>
+    <t>The Bage</t>
+  </si>
+  <si>
+    <t> HR3 6AE</t>
+  </si>
+  <si>
+    <t>  079 1019 9883</t>
+  </si>
+  <si>
+    <t>23 Guildford Rd</t>
+  </si>
+  <si>
+    <t>East Dean</t>
+  </si>
+  <si>
+    <t> SP5 6QY</t>
+  </si>
+  <si>
+    <t>  077 7519 8870</t>
+  </si>
+  <si>
+    <t>51 Balsham Road</t>
+  </si>
+  <si>
+    <t>Harvington</t>
+  </si>
+  <si>
+    <t> WR11 9NY</t>
+  </si>
+  <si>
+    <t>  077 0135 0249</t>
+  </si>
+  <si>
+    <t>52 Church Way</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t> DL8 9YX</t>
+  </si>
+  <si>
+    <t>  079 7763 4126</t>
+  </si>
+  <si>
+    <t>67 Holburn Lane</t>
+  </si>
+  <si>
+    <t>Helperthorpe</t>
+  </si>
+  <si>
+    <t> YO17 5NX</t>
+  </si>
+  <si>
+    <t>  079 2533 7348</t>
+  </si>
+  <si>
+    <t>39 Southend Avenue</t>
+  </si>
+  <si>
+    <t>Black Cross</t>
+  </si>
+  <si>
+    <t> TR8 3SR</t>
+  </si>
+  <si>
+    <t>  077 1728 2622</t>
   </si>
   <si>
     <t>91 Park Place</t>
   </si>
   <si>
-    <t>Cashlie</t>
-  </si>
-  <si>
-    <t> PH15 1PY</t>
-  </si>
-  <si>
-    <t>  078 1118 6055</t>
-  </si>
-  <si>
-    <t>97 Scotswood Road</t>
-  </si>
-  <si>
-    <t>Hook</t>
-  </si>
-  <si>
-    <t> SN4 4PA</t>
-  </si>
-  <si>
-    <t>  070 3965 9776</t>
-  </si>
-  <si>
-    <t>55 New Dover Rd</t>
-  </si>
-  <si>
-    <t>Walford</t>
-  </si>
-  <si>
-    <t> SY7 5NS</t>
-  </si>
-  <si>
-    <t>  070 2114 8804</t>
-  </si>
-  <si>
-    <t>57 Ivy Lane</t>
-  </si>
-  <si>
-    <t>Warcop</t>
-  </si>
-  <si>
-    <t> CA16 9HL</t>
-  </si>
-  <si>
-    <t>  079 3848 4962</t>
-  </si>
-  <si>
-    <t>51 Fore St</t>
-  </si>
-  <si>
-    <t>Tullich</t>
-  </si>
-  <si>
-    <t> PA34 7BD</t>
-  </si>
-  <si>
-    <t>  078 8973 0140</t>
-  </si>
-  <si>
-    <t>59 Prospect Hill</t>
-  </si>
-  <si>
-    <t>Drighlington</t>
-  </si>
-  <si>
-    <t> BD11 8EU</t>
-  </si>
-  <si>
-    <t>  079 5511 9963</t>
-  </si>
-  <si>
-    <t>52 Long Street</t>
-  </si>
-  <si>
-    <t>Millington</t>
-  </si>
-  <si>
-    <t> YO4 7AD</t>
-  </si>
-  <si>
-    <t>  079 7677 7169</t>
-  </si>
-  <si>
-    <t>87 Park End St</t>
-  </si>
-  <si>
-    <t>Bromsberrow Heath</t>
-  </si>
-  <si>
-    <t> HR8 2EZ</t>
-  </si>
-  <si>
-    <t>  078 6212 5936</t>
-  </si>
-  <si>
-    <t>80 St Omers Road</t>
-  </si>
-  <si>
-    <t>Holbury</t>
-  </si>
-  <si>
-    <t> SO45 4FU</t>
-  </si>
-  <si>
-    <t>  079 6037 8527</t>
-  </si>
-  <si>
-    <t>35 Rhosddu Rd</t>
-  </si>
-  <si>
-    <t>Fincham</t>
-  </si>
-  <si>
-    <t> PE33 5SS</t>
-  </si>
-  <si>
-    <t>  079 5001 0111</t>
-  </si>
-  <si>
-    <t>35 Hounslow Rd</t>
-  </si>
-  <si>
-    <t>Somersal Herbert</t>
-  </si>
-  <si>
-    <t> DE6 4LU</t>
-  </si>
-  <si>
-    <t>  077 0353 8096</t>
-  </si>
-  <si>
-    <t>30 Kingsway North</t>
-  </si>
-  <si>
-    <t>Holt Fleet</t>
-  </si>
-  <si>
-    <t> WR9 9YS</t>
-  </si>
-  <si>
-    <t>  070 8072 3542</t>
-  </si>
-  <si>
-    <t>39 Dover Road</t>
-  </si>
-  <si>
-    <t>Westfield</t>
-  </si>
-  <si>
-    <t> TN35 0PE</t>
-  </si>
-  <si>
-    <t>  070 6015 3999</t>
-  </si>
-  <si>
-    <t>80 North Road</t>
-  </si>
-  <si>
-    <t>Netherton</t>
-  </si>
-  <si>
-    <t> DD9 8RS</t>
-  </si>
-  <si>
-    <t>  079 1695 2620</t>
-  </si>
-  <si>
-    <t>1 St Maurices Road</t>
-  </si>
-  <si>
-    <t>Preston Brook</t>
-  </si>
-  <si>
-    <t> WA7 1NP</t>
-  </si>
-  <si>
-    <t>  070 1407 9050</t>
-  </si>
-  <si>
-    <t>53 Worthy Lane</t>
-  </si>
-  <si>
-    <t>Mayford</t>
-  </si>
-  <si>
-    <t> GU22 7LG</t>
-  </si>
-  <si>
-    <t>  070 3776 8580</t>
-  </si>
-  <si>
-    <t>36 Manor Close</t>
-  </si>
-  <si>
-    <t>Dinvin</t>
-  </si>
-  <si>
-    <t> DG9 9NX</t>
-  </si>
-  <si>
-    <t>  077 4219 0182</t>
-  </si>
-  <si>
-    <t>56 Grenoble Road</t>
-  </si>
-  <si>
-    <t>Breakon</t>
-  </si>
-  <si>
-    <t> ZE2 7YX</t>
-  </si>
-  <si>
-    <t>  077 2488 5919</t>
-  </si>
-  <si>
-    <t>33 Moulton Road</t>
-  </si>
-  <si>
-    <t>Gyrn Goch</t>
-  </si>
-  <si>
-    <t> LL54 5LA</t>
-  </si>
-  <si>
-    <t>  078 0924 1084</t>
-  </si>
-  <si>
-    <t>31 Wressle Road</t>
-  </si>
-  <si>
-    <t>Poffley End</t>
-  </si>
-  <si>
-    <t> OX8 5HS</t>
-  </si>
-  <si>
-    <t>  070 7683 6981</t>
-  </si>
-  <si>
-    <t>26 Whitby Road</t>
-  </si>
-  <si>
-    <t>Denend</t>
-  </si>
-  <si>
-    <t> AB54 9TX</t>
-  </si>
-  <si>
-    <t>  079 1533 2310</t>
-  </si>
-  <si>
-    <t>6 High St</t>
-  </si>
-  <si>
-    <t>Thurnham</t>
-  </si>
-  <si>
-    <t> ME14 2LR</t>
-  </si>
-  <si>
-    <t>  079 1429 7438</t>
-  </si>
-  <si>
-    <t>98 Ross Road</t>
-  </si>
-  <si>
-    <t>Markington</t>
-  </si>
-  <si>
-    <t> HG3 8AA</t>
-  </si>
-  <si>
-    <t>  078 7843 5308</t>
-  </si>
-  <si>
-    <t>30 Scarcroft Road</t>
-  </si>
-  <si>
-    <t>Porlock</t>
-  </si>
-  <si>
-    <t> TA24 5TP</t>
-  </si>
-  <si>
-    <t>  070 7265 9414</t>
-  </si>
-  <si>
-    <t>90 Copthorne Way</t>
-  </si>
-  <si>
-    <t>Camault Muir</t>
-  </si>
-  <si>
-    <t> IV4 7WT</t>
-  </si>
-  <si>
-    <t>  077 0714 2313</t>
-  </si>
-  <si>
-    <t>99 Merthyr Road</t>
-  </si>
-  <si>
-    <t>Burnett</t>
-  </si>
-  <si>
-    <t> BS18 1ZB</t>
-  </si>
-  <si>
-    <t>  079 2486 3016</t>
-  </si>
-  <si>
-    <t>11 Iffley Road</t>
-  </si>
-  <si>
-    <t>Brockfield</t>
-  </si>
-  <si>
-    <t> YO32 8TZ</t>
-  </si>
-  <si>
-    <t>  077 3382 8535</t>
-  </si>
-  <si>
-    <t>66 Ash Lane</t>
-  </si>
-  <si>
-    <t>Yockenthwaite</t>
-  </si>
-  <si>
-    <t> BD23 8AS</t>
-  </si>
-  <si>
-    <t>  070 1071 3739</t>
-  </si>
-  <si>
-    <t>1 Lammas Street</t>
-  </si>
-  <si>
-    <t>Great Cheverell</t>
-  </si>
-  <si>
-    <t> SN10 5NG</t>
-  </si>
-  <si>
-    <t>  079 7739 6233</t>
-  </si>
-  <si>
-    <t>55 Moulton Road</t>
-  </si>
-  <si>
-    <t>Gurney Slade</t>
-  </si>
-  <si>
-    <t> BA3 1DT</t>
-  </si>
-  <si>
-    <t>  078 1594 7423</t>
-  </si>
-  <si>
-    <t>34 Bouverie Road</t>
-  </si>
-  <si>
-    <t>Wetheringsett</t>
-  </si>
-  <si>
-    <t> IP14 5ZB</t>
-  </si>
-  <si>
-    <t>  077 0503 2128</t>
-  </si>
-  <si>
-    <t>18 Prince Consort Road</t>
-  </si>
-  <si>
-    <t>Kenknock</t>
-  </si>
-  <si>
-    <t> PH15 0GF</t>
-  </si>
-  <si>
-    <t>  078 3948 5422</t>
-  </si>
-  <si>
-    <t>64 Prestwick Road</t>
-  </si>
-  <si>
-    <t>Invercassley</t>
-  </si>
-  <si>
-    <t> IV27 5TE</t>
-  </si>
-  <si>
-    <t>  079 8896 4879</t>
-  </si>
-  <si>
-    <t>13 Lincoln Green Lane</t>
-  </si>
-  <si>
-    <t>Church End</t>
-  </si>
-  <si>
-    <t> PE13 2HE</t>
-  </si>
-  <si>
-    <t>  077 7463 4142</t>
-  </si>
-  <si>
-    <t>49 Scrimshire Lane</t>
-  </si>
-  <si>
-    <t>Aston Somerville</t>
-  </si>
-  <si>
-    <t> WR12 2EY</t>
-  </si>
-  <si>
-    <t>  070 8316 4213</t>
-  </si>
-  <si>
-    <t>48 Winchester Rd</t>
-  </si>
-  <si>
-    <t>Methil</t>
-  </si>
-  <si>
-    <t> KY8 0YN</t>
-  </si>
-  <si>
-    <t>  078 8620 8709</t>
-  </si>
-  <si>
-    <t>86 Argyll Street</t>
-  </si>
-  <si>
-    <t>Stainforth</t>
-  </si>
-  <si>
-    <t> BD24 0EY</t>
-  </si>
-  <si>
-    <t>  070 2275 8871</t>
-  </si>
-  <si>
-    <t>44 Harehills Lane</t>
-  </si>
-  <si>
-    <t>Rugby</t>
-  </si>
-  <si>
-    <t> CV21 7WT</t>
-  </si>
-  <si>
-    <t>  077 8595 8027</t>
-  </si>
-  <si>
-    <t>53 Fordham Rd</t>
-  </si>
-  <si>
-    <t>Halloughton</t>
-  </si>
-  <si>
-    <t> NG25 2BA</t>
-  </si>
-  <si>
-    <t>  079 1243 0234</t>
+    <t>Castle Eaton</t>
+  </si>
+  <si>
+    <t> SN6 7XR</t>
+  </si>
+  <si>
+    <t>  077 0638 7806</t>
+  </si>
+  <si>
+    <t>95 Southend Avenue</t>
+  </si>
+  <si>
+    <t>Blacktop</t>
+  </si>
+  <si>
+    <t> AB1 0RD</t>
+  </si>
+  <si>
+    <t>  070 6324 2231</t>
+  </si>
+  <si>
+    <t>7 Essex Rd</t>
+  </si>
+  <si>
+    <t>Tasburgh</t>
+  </si>
+  <si>
+    <t> NR15 8ZB</t>
+  </si>
+  <si>
+    <t>  077 5359 5426</t>
+  </si>
+  <si>
+    <t>48 North Promenade</t>
+  </si>
+  <si>
+    <t>Dolton</t>
+  </si>
+  <si>
+    <t> EX19 5XE</t>
+  </si>
+  <si>
+    <t>  078 8139 9606</t>
+  </si>
+  <si>
+    <t>85 Huntly Street</t>
+  </si>
+  <si>
+    <t>Barrnacarry</t>
+  </si>
+  <si>
+    <t> PA34 0BW</t>
+  </si>
+  <si>
+    <t>  078 6769 5636</t>
+  </si>
+  <si>
+    <t>18 Victoria Road</t>
+  </si>
+  <si>
+    <t>Little Creich</t>
+  </si>
+  <si>
+    <t> IV24 4QZ</t>
+  </si>
+  <si>
+    <t>  078 6496 2006</t>
+  </si>
+  <si>
+    <t>21 Cambridge Road</t>
+  </si>
+  <si>
+    <t>North Brewham</t>
+  </si>
+  <si>
+    <t> BA10 8UE</t>
+  </si>
+  <si>
+    <t>  079 6060 8536</t>
+  </si>
+  <si>
+    <t>88 Mounthoolie Lane</t>
+  </si>
+  <si>
+    <t>Sutton In The Elms</t>
+  </si>
+  <si>
+    <t> LE9 8WD</t>
+  </si>
+  <si>
+    <t>  070 7270 9152</t>
+  </si>
+  <si>
+    <t>21 Rhosddu Rd</t>
+  </si>
+  <si>
+    <t>Finchingfield</t>
+  </si>
+  <si>
+    <t> CM7 3XF</t>
+  </si>
+  <si>
+    <t>  070 7269 3934</t>
+  </si>
+  <si>
+    <t>19 Warner Close</t>
+  </si>
+  <si>
+    <t>Hassocks</t>
+  </si>
+  <si>
+    <t> BN6 1DH</t>
+  </si>
+  <si>
+    <t>  078 2729 8143</t>
+  </si>
+  <si>
+    <t>35 Wenlock Terrace</t>
+  </si>
+  <si>
+    <t>Pen-twyn</t>
+  </si>
+  <si>
+    <t> NP5 5HP</t>
+  </si>
+  <si>
+    <t>  077 8922 9273</t>
+  </si>
+  <si>
+    <t>71 St James Boulevard</t>
+  </si>
+  <si>
+    <t>Horndon On The Hill</t>
+  </si>
+  <si>
+    <t> SS17 1WS</t>
+  </si>
+  <si>
+    <t>  077 1904 3342</t>
+  </si>
+  <si>
+    <t>65 Hounslow Rd</t>
+  </si>
+  <si>
+    <t>Smithfield</t>
+  </si>
+  <si>
+    <t> CA6 7HB</t>
+  </si>
+  <si>
+    <t>  078 3189 4717</t>
+  </si>
+  <si>
+    <t>73 St James Boulevard</t>
+  </si>
+  <si>
+    <t>Horning</t>
+  </si>
+  <si>
+    <t> NR12 2DN</t>
+  </si>
+  <si>
+    <t>  070 5879 7550</t>
+  </si>
+  <si>
+    <t>1 Buckingham Rd</t>
+  </si>
+  <si>
+    <t>Thornton Park</t>
+  </si>
+  <si>
+    <t> TD15 5PA</t>
+  </si>
+  <si>
+    <t>  077 7333 6138</t>
+  </si>
+  <si>
+    <t>40 South Western Terrace</t>
+  </si>
+  <si>
+    <t>Milton Ernest</t>
+  </si>
+  <si>
+    <t> MK44 8YD</t>
+  </si>
+  <si>
+    <t>  078 1260 6163</t>
+  </si>
+  <si>
+    <t>67 Wood Lane</t>
+  </si>
+  <si>
+    <t>Bagworth</t>
+  </si>
+  <si>
+    <t> LE67 5XF</t>
+  </si>
+  <si>
+    <t>  079 1698 2055</t>
+  </si>
+  <si>
+    <t>60 Ermin Street</t>
+  </si>
+  <si>
+    <t>Wyke</t>
+  </si>
+  <si>
+    <t> TF13 7XL</t>
+  </si>
+  <si>
+    <t>  079 8130 0666</t>
+  </si>
+  <si>
+    <t>34 Well Lane</t>
+  </si>
+  <si>
+    <t>Pattishall</t>
+  </si>
+  <si>
+    <t> NN12 7HA</t>
+  </si>
+  <si>
+    <t>  070 2900 3443</t>
+  </si>
+  <si>
+    <t>13 York Road</t>
+  </si>
+  <si>
+    <t>Over Peover</t>
+  </si>
+  <si>
+    <t> WA16 6FG</t>
+  </si>
+  <si>
+    <t>  078 7220 0416</t>
   </si>
 </sst>
 </file>
@@ -2458,8 +2443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B28299-EDF9-4364-889F-BB3A87976C85}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2510,25 +2495,25 @@
     </row>
     <row r="2" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>96</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>316</v>
@@ -2542,31 +2527,31 @@
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>96</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H3" s="10" t="s">
         <v>317</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>370</v>
@@ -2574,31 +2559,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B4" t="s">
         <v>379</v>
       </c>
-      <c r="B4" t="s">
-        <v>429</v>
-      </c>
       <c r="C4" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F4" t="s">
         <v>96</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>318</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J4" t="s">
         <v>369</v>
@@ -2606,25 +2591,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>430</v>
       </c>
       <c r="C5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F5" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>319</v>
@@ -2638,31 +2623,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>431</v>
       </c>
       <c r="C6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F6" t="s">
         <v>96</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>320</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J6" t="s">
         <v>370</v>
@@ -2670,31 +2655,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
         <v>432</v>
       </c>
       <c r="C7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F7" t="s">
         <v>96</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>321</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J7" t="s">
         <v>369</v>
@@ -2702,25 +2687,25 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
         <v>433</v>
       </c>
       <c r="C8" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="E8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>322</v>
@@ -2734,31 +2719,31 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B9" t="s">
         <v>434</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F9" t="s">
         <v>96</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>323</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J9" t="s">
         <v>370</v>
@@ -2766,31 +2751,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s">
         <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E10" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F10" t="s">
         <v>96</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>324</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J10" t="s">
         <v>369</v>
@@ -2798,25 +2783,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B11" t="s">
         <v>436</v>
       </c>
       <c r="C11" t="s">
-        <v>512</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="E11" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>325</v>
@@ -2830,31 +2815,31 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B12" t="s">
         <v>437</v>
       </c>
       <c r="C12" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E12" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F12" t="s">
         <v>96</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>326</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J12" t="s">
         <v>370</v>
@@ -2862,31 +2847,31 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B13" t="s">
         <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D13" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="E13" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F13" t="s">
         <v>96</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>327</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J13" t="s">
         <v>369</v>
@@ -2894,25 +2879,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B14" t="s">
         <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D14" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E14" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="F14" t="s">
         <v>96</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>328</v>
@@ -2926,31 +2911,31 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s">
         <v>440</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D15" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E15" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F15" t="s">
         <v>96</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>329</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J15" t="s">
         <v>370</v>
@@ -2958,31 +2943,31 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D16" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="F16" t="s">
         <v>96</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>330</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J16" t="s">
         <v>369</v>
@@ -2990,25 +2975,25 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C17" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D17" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="E17" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F17" t="s">
         <v>96</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>331</v>
@@ -3022,31 +3007,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D18" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E18" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>332</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J18" t="s">
         <v>370</v>
@@ -3054,31 +3039,31 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C19" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D19" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E19" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F19" t="s">
         <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>333</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J19" t="s">
         <v>369</v>
@@ -3086,25 +3071,25 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B20" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C20" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D20" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E20" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="F20" t="s">
         <v>96</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>334</v>
@@ -3118,31 +3103,31 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C21" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D21" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="E21" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F21" t="s">
         <v>96</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>335</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J21" t="s">
         <v>370</v>
@@ -3150,31 +3135,31 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C22" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D22" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="E22" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>336</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J22" t="s">
         <v>369</v>
@@ -3182,25 +3167,25 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C23" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E23" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F23" t="s">
         <v>96</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>337</v>
@@ -3214,31 +3199,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B24" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C24" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D24" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="E24" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F24" t="s">
         <v>96</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>338</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J24" t="s">
         <v>370</v>
@@ -3246,31 +3231,31 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B25" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C25" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D25" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="E25" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="F25" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>339</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J25" t="s">
         <v>369</v>
@@ -3278,25 +3263,25 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C26" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D26" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="E26" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="F26" t="s">
         <v>96</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>340</v>
@@ -3310,31 +3295,31 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C27" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="D27" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="E27" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F27" t="s">
         <v>96</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>341</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J27" t="s">
         <v>370</v>
@@ -3342,31 +3327,31 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C28" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D28" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="E28" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F28" t="s">
         <v>96</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>342</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J28" t="s">
         <v>369</v>
@@ -3374,25 +3359,25 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B29" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C29" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="E29" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F29" t="s">
         <v>96</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>343</v>
@@ -3406,31 +3391,31 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B30" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C30" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D30" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="E30" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F30" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>344</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J30" t="s">
         <v>370</v>
@@ -3438,31 +3423,31 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B31" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C31" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D31" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E31" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F31" t="s">
         <v>96</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>345</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J31" t="s">
         <v>369</v>
@@ -3470,25 +3455,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C32" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D32" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E32" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F32" t="s">
         <v>96</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>346</v>
@@ -3502,31 +3487,31 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C33" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D33" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E33" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="F33" t="s">
         <v>96</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>347</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J33" t="s">
         <v>370</v>
@@ -3534,31 +3519,31 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>91</v>
       </c>
       <c r="C34" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D34" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F34" t="s">
         <v>96</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>348</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J34" t="s">
         <v>369</v>
@@ -3566,25 +3551,25 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B35" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C35" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D35" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E35" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F35" t="s">
         <v>96</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>349</v>
@@ -3598,31 +3583,31 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B36" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C36" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D36" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="E36" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="F36" t="s">
         <v>96</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>350</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J36" t="s">
         <v>370</v>
@@ -3630,31 +3615,31 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B37" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C37" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D37" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E37" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F37" t="s">
         <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
         <v>369</v>
@@ -3662,25 +3647,25 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C38" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D38" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E38" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F38" t="s">
         <v>96</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>352</v>
@@ -3694,31 +3679,31 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C39" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="D39" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="E39" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F39" t="s">
         <v>96</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>353</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
         <v>370</v>
@@ -3726,31 +3711,31 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B40" t="s">
-        <v>464</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D40" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="E40" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F40" t="s">
         <v>96</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>354</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J40" t="s">
         <v>369</v>
@@ -3758,25 +3743,25 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C41" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="D41" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E41" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F41" t="s">
         <v>96</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>355</v>
@@ -3790,31 +3775,31 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C42" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D42" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E42" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F42" t="s">
         <v>96</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>356</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J42" t="s">
         <v>370</v>
@@ -3822,31 +3807,31 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C43" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D43" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E43" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F43" t="s">
         <v>96</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>357</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J43" t="s">
         <v>369</v>
@@ -3854,25 +3839,25 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B44" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C44" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D44" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E44" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F44" t="s">
         <v>96</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>358</v>
@@ -3886,31 +3871,31 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C45" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="D45" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E45" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F45" t="s">
         <v>96</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>359</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
         <v>370</v>
@@ -3918,31 +3903,31 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B46" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C46" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D46" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E46" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F46" t="s">
         <v>96</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>360</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J46" t="s">
         <v>369</v>
@@ -3950,25 +3935,25 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B47" t="s">
-        <v>471</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D47" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E47" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F47" t="s">
         <v>96</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>361</v>
@@ -3982,31 +3967,31 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B48" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C48" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D48" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E48" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F48" t="s">
         <v>96</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>362</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J48" t="s">
         <v>370</v>
@@ -4014,31 +3999,31 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B49" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C49" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D49" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E49" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F49" t="s">
         <v>96</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>363</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J49" t="s">
         <v>369</v>
@@ -4046,25 +4031,25 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="C50" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="D50" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E50" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F50" t="s">
         <v>96</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>364</v>
@@ -4078,31 +4063,31 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B51" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C51" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="D51" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="E51" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F51" t="s">
         <v>96</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>365</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="J51" t="s">
         <v>370</v>
